--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F75A03-5F37-47D2-A879-7BCC504C99A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C01F45F-6915-4782-8DB5-46B10B3DD224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{59084A23-F2A1-4F59-A4E7-9E32580D3D8E}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{82D9C6FF-0A78-4513-A48F-36BF839695A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B79D451-EC51-46B3-ACCF-BE314D9EFDCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB1B723-71CB-4EA9-A66C-D78A14C8E2D5}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C01F45F-6915-4782-8DB5-46B10B3DD224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724BC2FE-D1A1-4673-A849-2B71F2628516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{82D9C6FF-0A78-4513-A48F-36BF839695A2}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{F9045AFA-5183-434B-BAA2-043A28EB74CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB1B723-71CB-4EA9-A66C-D78A14C8E2D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C74FAEF-F70A-4342-9D2A-60C9160C8B96}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>2.3187525832783749</v>
+        <v>45.715882145518449</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724BC2FE-D1A1-4673-A849-2B71F2628516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1CCD58-9760-4E11-A4A1-2EEBE50C5A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{F9045AFA-5183-434B-BAA2-043A28EB74CC}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{49DE19C3-BAFD-41CC-846C-D0279673DFFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C74FAEF-F70A-4342-9D2A-60C9160C8B96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401A61CA-221E-4B3C-B054-645B64160180}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>45.715882145518449</v>
+        <v>4.1626030063437423</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1CCD58-9760-4E11-A4A1-2EEBE50C5A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE88910C-5516-4D4C-AF35-B4D1D4F577A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{49DE19C3-BAFD-41CC-846C-D0279673DFFD}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{639D268C-95A9-43FE-95B2-480B8EE75FD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401A61CA-221E-4B3C-B054-645B64160180}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4EFE71-06B9-44E4-98E3-BD5CD0697DBF}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
